--- a/artifacts/source_files/vendors.xlsx
+++ b/artifacts/source_files/vendors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petros/projects/apiro_sandbox/artifacts/data_sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petros/projects/apiro_examples/artifacts/source_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC248F1C-A97C-D948-A57A-8B0DC5AAD3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB3534B-D1AA-5847-9B57-5865F8550D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="1588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1474">
   <si>
     <t>Vendor</t>
   </si>
@@ -4447,361 +4447,19 @@
     <t>Steve Hoberman &amp; Associates, L</t>
   </si>
   <si>
-    <t>veridion_id</t>
-  </si>
-  <si>
-    <t>match_score</t>
-  </si>
-  <si>
-    <t>digital_index_score</t>
-  </si>
-  <si>
-    <t>digital_address_score</t>
-  </si>
-  <si>
-    <t>digital_name_score</t>
-  </si>
-  <si>
-    <t>digital_key_score</t>
-  </si>
-  <si>
-    <t>digital_source_score</t>
-  </si>
-  <si>
-    <t>company_name</t>
-  </si>
-  <si>
-    <t>company_legal_names</t>
-  </si>
-  <si>
-    <t>company_commercial_names</t>
-  </si>
-  <si>
-    <t>matched_country_code</t>
-  </si>
-  <si>
-    <t>matched_country</t>
-  </si>
-  <si>
-    <t>matched_region</t>
-  </si>
-  <si>
-    <t>matched_city</t>
-  </si>
-  <si>
-    <t>matched_postcode</t>
-  </si>
-  <si>
-    <t>matched_street</t>
-  </si>
-  <si>
-    <t>matched_street_number</t>
-  </si>
-  <si>
-    <t>matched_latitude</t>
-  </si>
-  <si>
-    <t>matched_longitude</t>
-  </si>
-  <si>
-    <t>main_country_code</t>
-  </si>
-  <si>
-    <t>main_country</t>
-  </si>
-  <si>
-    <t>main_region</t>
-  </si>
-  <si>
-    <t>main_city</t>
-  </si>
-  <si>
-    <t>main_postcode</t>
-  </si>
-  <si>
-    <t>main_street</t>
-  </si>
-  <si>
-    <t>main_street_number</t>
-  </si>
-  <si>
-    <t>main_latitude</t>
-  </si>
-  <si>
-    <t>main_longitude</t>
-  </si>
-  <si>
-    <t>locations</t>
-  </si>
-  <si>
-    <t>num_locations</t>
-  </si>
-  <si>
-    <t>company_type</t>
-  </si>
-  <si>
-    <t>year_founded</t>
-  </si>
-  <si>
-    <t>employee_count</t>
-  </si>
-  <si>
-    <t>estimated_revenue</t>
-  </si>
-  <si>
-    <t>short_description</t>
-  </si>
-  <si>
-    <t>long_description</t>
-  </si>
-  <si>
-    <t>business_tags</t>
-  </si>
-  <si>
-    <t>main_industry</t>
-  </si>
-  <si>
-    <t>main_business_category</t>
-  </si>
-  <si>
-    <t>naics_2022_primary_code</t>
-  </si>
-  <si>
-    <t>naics_2022_primary_label</t>
-  </si>
-  <si>
-    <t>naics_2022_secondary_codes</t>
-  </si>
-  <si>
-    <t>naics_2022_secondary_labels</t>
-  </si>
-  <si>
-    <t>sic_codes</t>
-  </si>
-  <si>
-    <t>sic_labels</t>
-  </si>
-  <si>
-    <t>isic_v4_codes</t>
-  </si>
-  <si>
-    <t>isic_v4_labels</t>
-  </si>
-  <si>
-    <t>nace_rev2_codes</t>
-  </si>
-  <si>
-    <t>nace_rev2_labels</t>
-  </si>
-  <si>
-    <t>website_url</t>
-  </si>
-  <si>
-    <t>website_domain</t>
-  </si>
-  <si>
-    <t>phone_numbers</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>facebook_url</t>
-  </si>
-  <si>
-    <t>twitter_url</t>
-  </si>
-  <si>
-    <t>instagram_url</t>
-  </si>
-  <si>
-    <t>linkedin_url</t>
-  </si>
-  <si>
-    <t>ios_app_url</t>
-  </si>
-  <si>
-    <t>android_app_url</t>
-  </si>
-  <si>
-    <t>youtube_url</t>
-  </si>
-  <si>
-    <t>tiktok_url</t>
-  </si>
-  <si>
-    <t>cms</t>
-  </si>
-  <si>
-    <t>alexa_rank</t>
-  </si>
-  <si>
-    <t>seo_score</t>
-  </si>
-  <si>
-    <t>seo_issues</t>
-  </si>
-  <si>
-    <t>technologies</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>last_updated_at</t>
-  </si>
-  <si>
-    <t>registered_entity_veridion_id</t>
-  </si>
-  <si>
-    <t>legal_match_score</t>
-  </si>
-  <si>
-    <t>legal_index_score</t>
-  </si>
-  <si>
-    <t>legal_address_score</t>
-  </si>
-  <si>
-    <t>legal_name_score</t>
-  </si>
-  <si>
-    <t>legal_key_score</t>
-  </si>
-  <si>
-    <t>legal_source_score</t>
-  </si>
-  <si>
-    <t>registered_name</t>
-  </si>
-  <si>
-    <t>registered_country_code</t>
-  </si>
-  <si>
-    <t>registered_country</t>
-  </si>
-  <si>
-    <t>registered_region</t>
-  </si>
-  <si>
-    <t>registered_city</t>
-  </si>
-  <si>
-    <t>registered_postcode</t>
-  </si>
-  <si>
-    <t>registered_street</t>
-  </si>
-  <si>
-    <t>registered_street_number</t>
-  </si>
-  <si>
-    <t>registered_latitude</t>
-  </si>
-  <si>
-    <t>registered_longitude</t>
-  </si>
-  <si>
-    <t>registered_primary_phone</t>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t>legal_form</t>
-  </si>
-  <si>
-    <t>company_status</t>
-  </si>
-  <si>
-    <t>year_incorporated</t>
-  </si>
-  <si>
-    <t>date_incorporated</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>ein</t>
-  </si>
-  <si>
-    <t>vat_id</t>
-  </si>
-  <si>
-    <t>registry_id</t>
-  </si>
-  <si>
-    <t>legal_top_global_company_id</t>
-  </si>
-  <si>
-    <t>legal_top_company_id</t>
-  </si>
-  <si>
-    <t>legal_global_company_ids</t>
-  </si>
-  <si>
-    <t>legal_company_ids</t>
-  </si>
-  <si>
-    <t>legal_local_registry_id</t>
-  </si>
-  <si>
-    <t>legal_company_registry_id</t>
-  </si>
-  <si>
-    <t>legal_tin</t>
-  </si>
-  <si>
-    <t>legal_registry_ids</t>
-  </si>
-  <si>
-    <t>legal_tax_ids</t>
-  </si>
-  <si>
-    <t>legal_top_tax_id</t>
-  </si>
-  <si>
-    <t>DERIVED COUNTRY REGISTRATION</t>
-  </si>
-  <si>
-    <t>LOCAL CURRENCY</t>
-  </si>
-  <si>
-    <t>DOCUMENT CURRENCY</t>
-  </si>
-  <si>
-    <t>DERIVED COUNTRY ORIGIN</t>
-  </si>
-  <si>
-    <t>DERIVED COUNTRY ISO</t>
-  </si>
-  <si>
-    <t>commercial_names_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>address_txt_ENR_SEARCH_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>street_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>city_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>postcode_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>region_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>phone_number_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>website_ENR_SEARCH</t>
-  </si>
-  <si>
-    <t>email_ENR_SEARCH</t>
+    <t>DER COMPANY JURISDICTION</t>
+  </si>
+  <si>
+    <t>DER COUNRTY CODE OF REGISTRATION ISO 3166-1 alpha-3</t>
+  </si>
+  <si>
+    <t>DER COUNRTY NAME OF REGISTRATION ISO 3166</t>
+  </si>
+  <si>
+    <t>DER CURRENCY NAME ISO4217</t>
+  </si>
+  <si>
+    <t>VENDOR NAME AI EXTRACTOR CERTAINTY</t>
   </si>
 </sst>
 </file>
@@ -4849,7 +4507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4860,24 +4518,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
   </fills>
@@ -4945,7 +4585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4963,19 +4603,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5194,482 +4830,135 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DQ12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD509"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="55" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="11" customWidth="1"/>
-    <col min="4" max="5" width="30.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.6640625" style="11"/>
+    <col min="1" max="1" width="24.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="12.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>1576</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>1580</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>1582</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>1583</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>1584</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>1585</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>1586</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>1587</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+      <c r="C1" s="8" t="s">
         <v>1469</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>1471</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>1472</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>1473</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>1474</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>1475</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>1476</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>1477</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>1478</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>1479</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>1480</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>1481</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>1482</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>1483</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>1484</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>1486</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>1487</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>1490</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>1491</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>1492</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>1494</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>1495</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>1496</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>1499</v>
-      </c>
-      <c r="AV1" s="7" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AW1" s="7" t="s">
-        <v>1501</v>
-      </c>
-      <c r="AX1" s="7" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AY1" s="7" t="s">
-        <v>1503</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>1504</v>
-      </c>
-      <c r="BA1" s="7" t="s">
-        <v>1505</v>
-      </c>
-      <c r="BB1" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>1507</v>
-      </c>
-      <c r="BD1" s="7" t="s">
-        <v>1508</v>
-      </c>
-      <c r="BE1" s="7" t="s">
-        <v>1509</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>1510</v>
-      </c>
-      <c r="BG1" s="7" t="s">
-        <v>1511</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>1512</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>1513</v>
-      </c>
-      <c r="BJ1" s="7" t="s">
-        <v>1514</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>1515</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>1516</v>
-      </c>
-      <c r="BM1" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="BN1" s="7" t="s">
-        <v>1518</v>
-      </c>
-      <c r="BO1" s="7" t="s">
-        <v>1519</v>
-      </c>
-      <c r="BP1" s="7" t="s">
-        <v>1520</v>
-      </c>
-      <c r="BQ1" s="7" t="s">
-        <v>1521</v>
-      </c>
-      <c r="BR1" s="7" t="s">
-        <v>1522</v>
-      </c>
-      <c r="BS1" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="BT1" s="7" t="s">
-        <v>1524</v>
-      </c>
-      <c r="BU1" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="BV1" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="BW1" s="7" t="s">
-        <v>1527</v>
-      </c>
-      <c r="BX1" s="7" t="s">
-        <v>1528</v>
-      </c>
-      <c r="BY1" s="7" t="s">
-        <v>1529</v>
-      </c>
-      <c r="BZ1" s="7" t="s">
-        <v>1530</v>
-      </c>
-      <c r="CA1" s="7" t="s">
-        <v>1531</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>1532</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>1533</v>
-      </c>
-      <c r="CD1" s="7" t="s">
-        <v>1534</v>
-      </c>
-      <c r="CE1" s="7" t="s">
-        <v>1535</v>
-      </c>
-      <c r="CF1" s="7" t="s">
-        <v>1536</v>
-      </c>
-      <c r="CG1" s="7" t="s">
-        <v>1537</v>
-      </c>
-      <c r="CH1" s="7" t="s">
-        <v>1538</v>
-      </c>
-      <c r="CI1" s="7" t="s">
-        <v>1539</v>
-      </c>
-      <c r="CJ1" s="7" t="s">
-        <v>1540</v>
-      </c>
-      <c r="CK1" s="7" t="s">
-        <v>1541</v>
-      </c>
-      <c r="CL1" s="7" t="s">
-        <v>1542</v>
-      </c>
-      <c r="CM1" s="7" t="s">
-        <v>1543</v>
-      </c>
-      <c r="CN1" s="7" t="s">
-        <v>1544</v>
-      </c>
-      <c r="CO1" s="7" t="s">
-        <v>1545</v>
-      </c>
-      <c r="CP1" s="7" t="s">
-        <v>1546</v>
-      </c>
-      <c r="CQ1" s="7" t="s">
-        <v>1547</v>
-      </c>
-      <c r="CR1" s="7" t="s">
-        <v>1548</v>
-      </c>
-      <c r="CS1" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="CT1" s="7" t="s">
-        <v>1550</v>
-      </c>
-      <c r="CU1" s="7" t="s">
-        <v>1551</v>
-      </c>
-      <c r="CV1" s="7" t="s">
-        <v>1552</v>
-      </c>
-      <c r="CW1" s="7" t="s">
-        <v>1553</v>
-      </c>
-      <c r="CX1" s="7" t="s">
-        <v>1554</v>
-      </c>
-      <c r="CY1" s="7" t="s">
-        <v>1555</v>
-      </c>
-      <c r="CZ1" s="7" t="s">
-        <v>1556</v>
-      </c>
-      <c r="DA1" s="7" t="s">
-        <v>1557</v>
-      </c>
-      <c r="DB1" s="7" t="s">
-        <v>1558</v>
-      </c>
-      <c r="DC1" s="7" t="s">
-        <v>1559</v>
-      </c>
-      <c r="DD1" s="7" t="s">
-        <v>1560</v>
-      </c>
-      <c r="DE1" s="7" t="s">
-        <v>1561</v>
-      </c>
-      <c r="DF1" s="7" t="s">
-        <v>1562</v>
-      </c>
-      <c r="DG1" s="7" t="s">
-        <v>1563</v>
-      </c>
-      <c r="DH1" s="7" t="s">
-        <v>1564</v>
-      </c>
-      <c r="DI1" s="7" t="s">
-        <v>1565</v>
-      </c>
-      <c r="DJ1" s="7" t="s">
-        <v>1566</v>
-      </c>
-      <c r="DK1" s="7" t="s">
-        <v>1567</v>
-      </c>
-      <c r="DL1" s="7" t="s">
-        <v>1568</v>
-      </c>
-      <c r="DM1" s="7" t="s">
-        <v>1569</v>
-      </c>
-      <c r="DN1" s="7" t="s">
-        <v>1570</v>
-      </c>
-      <c r="DO1" s="7" t="s">
-        <v>1571</v>
-      </c>
-      <c r="DP1" s="7" t="s">
-        <v>1572</v>
-      </c>
-      <c r="DQ1" s="7" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
     </row>

--- a/artifacts/source_files/vendors.xlsx
+++ b/artifacts/source_files/vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petros/projects/apiro_examples/artifacts/source_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB3534B-D1AA-5847-9B57-5865F8550D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84923D55-EE82-7149-A543-1935F32B2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1475">
   <si>
     <t>Vendor</t>
   </si>
@@ -4460,6 +4460,9 @@
   </si>
   <si>
     <t>VENDOR NAME AI EXTRACTOR CERTAINTY</t>
+  </si>
+  <si>
+    <t>DER CURRENCY CODE ISO4217</t>
   </si>
 </sst>
 </file>
@@ -4830,10 +4833,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4848,7 +4851,7 @@
     <col min="8" max="16384" width="12.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4865,13 +4868,16 @@
         <v>1471</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>1472</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -4903,7 +4909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -4911,7 +4917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -4922,7 +4928,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -4954,7 +4960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>

--- a/artifacts/source_files/vendors.xlsx
+++ b/artifacts/source_files/vendors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petros/projects/apiro_examples/artifacts/source_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84923D55-EE82-7149-A543-1935F32B2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196000F7-4DA3-8048-A1D3-3B72D88B47A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1487">
   <si>
     <t>Vendor</t>
   </si>
@@ -4463,6 +4463,42 @@
   </si>
   <si>
     <t>DER CURRENCY CODE ISO4217</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>117.68x7100</t>
+  </si>
+  <si>
+    <t>227.69x7101</t>
+  </si>
+  <si>
+    <t>337.70x7102</t>
+  </si>
+  <si>
+    <t>447.71x7103</t>
+  </si>
+  <si>
+    <t>557.72x7104</t>
+  </si>
+  <si>
+    <t>667.73x7105</t>
+  </si>
+  <si>
+    <t>777.74x7106</t>
+  </si>
+  <si>
+    <t>887.75x7107</t>
+  </si>
+  <si>
+    <t>997.76x7108</t>
+  </si>
+  <si>
+    <t>1107.77x7109</t>
+  </si>
+  <si>
+    <t>1217.78x7110</t>
   </si>
 </sst>
 </file>
@@ -4833,10 +4869,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4848,10 +4884,12 @@
     <col min="5" max="5" width="43.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.6640625" style="9"/>
+    <col min="8" max="10" width="12.6640625" style="9"/>
+    <col min="11" max="11" width="18.83203125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="12.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4876,48 +4914,66 @@
       <c r="H1" s="8" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K1" s="8" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K2" s="9" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="9" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="9" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="9" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="9" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -4927,45 +4983,63 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="9" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="9" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="9" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="9" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="9" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>23</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>1486</v>
       </c>
     </row>
   </sheetData>
